--- a/Platinenentwurf/Platinenkosten.xlsx
+++ b/Platinenentwurf/Platinenkosten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="4695"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="4695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kostenüberschlag" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="145">
   <si>
     <t>Anzahl</t>
   </si>
@@ -436,6 +436,21 @@
   </si>
   <si>
     <t>https://tinyurl.com/yxwp9hn7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>CH3</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -791,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -849,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <f>A4*D4</f>
+        <f t="shared" ref="F4:F15" si="0">A4*D4</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -874,7 +889,7 @@
         <v>2.98</v>
       </c>
       <c r="F5">
-        <f>A5*D5</f>
+        <f t="shared" si="0"/>
         <v>6.56</v>
       </c>
       <c r="G5">
@@ -899,11 +914,11 @@
         <v>7.79</v>
       </c>
       <c r="F6">
-        <f>A6*D6</f>
+        <f t="shared" si="0"/>
         <v>10.66</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G31" si="0">A6*E6</f>
+        <f t="shared" ref="G6:G31" si="1">A6*E6</f>
         <v>7.79</v>
       </c>
       <c r="H6" t="s">
@@ -912,11 +927,11 @@
     </row>
     <row r="7" spans="1:8">
       <c r="F7">
-        <f>A7*D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -937,11 +952,11 @@
         <v>0.1</v>
       </c>
       <c r="F8">
-        <f>A8*D8</f>
+        <f t="shared" si="0"/>
         <v>0.378</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -965,11 +980,11 @@
         <v>4.9299999999999997E-2</v>
       </c>
       <c r="F9">
-        <f>A9*D9</f>
+        <f t="shared" si="0"/>
         <v>0.17119999999999999</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8599999999999993E-2</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -993,11 +1008,11 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="F10">
-        <f>A10*D10</f>
+        <f t="shared" si="0"/>
         <v>3.9619999999999997</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.855</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1021,11 +1036,11 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="F11">
-        <f>A11*D11</f>
+        <f t="shared" si="0"/>
         <v>0.74399999999999999</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29120000000000001</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -1049,11 +1064,11 @@
         <v>9.8400000000000001E-2</v>
       </c>
       <c r="F12">
-        <f>A12*D12</f>
+        <f t="shared" si="0"/>
         <v>0.51300000000000001</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29520000000000002</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1077,11 +1092,11 @@
         <v>0.27</v>
       </c>
       <c r="F13">
-        <f>A13*D13</f>
+        <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.54</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -1105,11 +1120,11 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="F14">
-        <f>A14*D14</f>
+        <f t="shared" si="0"/>
         <v>0.94399999999999995</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56799999999999995</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1133,7 +1148,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="F15">
-        <f>A15*D15</f>
+        <f t="shared" si="0"/>
         <v>0.22900000000000001</v>
       </c>
       <c r="G15">
@@ -1146,11 +1161,11 @@
     </row>
     <row r="16" spans="1:8">
       <c r="F16">
-        <f t="shared" ref="F16:F17" si="1">A16*D16</f>
+        <f t="shared" ref="F16:F17" si="2">A16*D16</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1171,7 +1186,7 @@
         <v>1.34E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="G17">
@@ -1199,11 +1214,11 @@
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="F18">
-        <f>A18*D18</f>
+        <f t="shared" ref="F18:F31" si="3">A18*D18</f>
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7300000000000001E-2</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1227,11 +1242,11 @@
         <v>0.61199999999999999</v>
       </c>
       <c r="F19">
-        <f>A19*D19</f>
+        <f t="shared" si="3"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8359999999999999</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -1255,11 +1270,11 @@
         <v>0.191</v>
       </c>
       <c r="F20">
-        <f>A20*D20</f>
+        <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76400000000000001</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -1283,11 +1298,11 @@
         <v>2.6800000000000001E-2</v>
       </c>
       <c r="F21">
-        <f>A21*D21</f>
+        <f t="shared" si="3"/>
         <v>4.02E-2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6800000000000001E-2</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1311,11 +1326,11 @@
         <v>1.47E-2</v>
       </c>
       <c r="F22">
-        <f>A22*D22</f>
+        <f t="shared" si="3"/>
         <v>0.10149999999999999</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3499999999999996E-2</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1339,11 +1354,11 @@
         <v>0.25700000000000001</v>
       </c>
       <c r="F23">
-        <f>A23*D23</f>
+        <f t="shared" si="3"/>
         <v>0.50900000000000001</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25700000000000001</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -1367,11 +1382,11 @@
         <v>2.3800000000000002E-2</v>
       </c>
       <c r="F24">
-        <f>A24*D24</f>
+        <f t="shared" si="3"/>
         <v>3.5700000000000003E-2</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3800000000000002E-2</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -1384,11 +1399,11 @@
         <v>18</v>
       </c>
       <c r="F25">
-        <f>A25*D25</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1409,11 +1424,11 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="F26">
-        <f>A26*D26</f>
+        <f t="shared" si="3"/>
         <v>0.33700000000000002</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16200000000000001</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -1437,11 +1452,11 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="F27">
-        <f>A27*D27</f>
+        <f t="shared" si="3"/>
         <v>0.33700000000000002</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16200000000000001</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1462,11 +1477,11 @@
         <v>1.07</v>
       </c>
       <c r="F28">
-        <f>A28*D28</f>
+        <f t="shared" si="3"/>
         <v>2.3199999999999998</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.14</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -1490,11 +1505,11 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="F29">
-        <f>A29*D29</f>
+        <f t="shared" si="3"/>
         <v>0.61699999999999999</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34799999999999998</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -1518,11 +1533,11 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="F30">
-        <f>A30*D30</f>
+        <f t="shared" si="3"/>
         <v>2.82</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2799999999999998</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -1546,11 +1561,11 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="F31">
-        <f>A31*D31</f>
+        <f t="shared" si="3"/>
         <v>0.60499999999999998</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35499999999999998</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -1598,111 +1613,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="I8" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -1710,100 +1761,147 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>87</v>
       </c>
       <c r="B16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>91</v>
       </c>
       <c r="B20" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>97</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>98</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
       <c r="B25" t="s">
         <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1813,164 +1911,240 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>112</v>
       </c>
       <c r="B9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>113</v>
       </c>
       <c r="B10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>114</v>
       </c>
       <c r="B11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
       <c r="B13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
       <c r="B15" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>121</v>
       </c>
       <c r="B18" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>129</v>
       </c>
       <c r="B19" t="s">
         <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Platinenentwurf/Platinenkosten.xlsx
+++ b/Platinenentwurf/Platinenkosten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="4695" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="4695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Kostenüberschlag" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="147">
   <si>
     <t>Anzahl</t>
   </si>
@@ -60,18 +60,9 @@
     <t>2,2uF Kondensator</t>
   </si>
   <si>
-    <t>1kO Widerstand</t>
-  </si>
-  <si>
-    <t>7,5kO Widerstand</t>
-  </si>
-  <si>
     <t>10kO Widerstand</t>
   </si>
   <si>
-    <t>100kO Widerstand</t>
-  </si>
-  <si>
     <t>3,6kO Widerstand</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>https://tinyurl.com/yy8uoj4r</t>
   </si>
   <si>
-    <t>https://tinyurl.com/y3d95sqt</t>
-  </si>
-  <si>
     <t>Klemmblock</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t>C0805C220K5RACAUTO</t>
   </si>
   <si>
-    <t>MCMR08X102 JTL</t>
-  </si>
-  <si>
     <t>Can Bus</t>
   </si>
   <si>
@@ -198,12 +183,6 @@
     <t>BTN8982TAAUMA1</t>
   </si>
   <si>
-    <t>https://tinyurl.com/yyf7dbfj</t>
-  </si>
-  <si>
-    <t>CRCW1206100KFKEA</t>
-  </si>
-  <si>
     <t>https://tinyurl.com/y4c33jau</t>
   </si>
   <si>
@@ -222,12 +201,6 @@
     <t>ERA8AEB6491V</t>
   </si>
   <si>
-    <t>https://tinyurl.com/yxwm752d</t>
-  </si>
-  <si>
-    <t>CRCW12067K50FKEA </t>
-  </si>
-  <si>
     <t>https://tinyurl.com/y5pmg4ds</t>
   </si>
   <si>
@@ -451,6 +424,39 @@
   </si>
   <si>
     <t>j</t>
+  </si>
+  <si>
+    <t>100O Widerstand</t>
+  </si>
+  <si>
+    <t>CRCW1206100RFKEA</t>
+  </si>
+  <si>
+    <t>https://de.farnell.com/vishay/crcw1206100rfkea/dickschichtwiderstand-100r-1-0/dp/1469977</t>
+  </si>
+  <si>
+    <t>0,5kO Widerstand</t>
+  </si>
+  <si>
+    <t>CRCW1206499RFKEA</t>
+  </si>
+  <si>
+    <t>https://de.farnell.com/vishay/crcw1206499rfkea/dickschichtwiderstand-499r-1-0/dp/1470020</t>
+  </si>
+  <si>
+    <t>1kOhm</t>
+  </si>
+  <si>
+    <t>0 Ohm Widerstand</t>
+  </si>
+  <si>
+    <t>https://de.farnell.com/multicomp/mcmr08x000-ptl/widerstand-0r0-0-125w-0805-keramik/dp/2073603</t>
+  </si>
+  <si>
+    <t>MCMR08X000 PTL</t>
+  </si>
+  <si>
+    <t>STM32F405RGT7</t>
   </si>
 </sst>
 </file>
@@ -804,808 +810,845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="F1">
-        <f>SUM(F4:F37)</f>
-        <v>37.095999999999989</v>
-      </c>
+    <row r="1" spans="1:9">
       <c r="G1">
-        <f>SUM(G4:G37)</f>
-        <v>26.183800000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+        <f>SUM(G4:G39)</f>
+        <v>37.625699999999988</v>
+      </c>
+      <c r="H1">
+        <f>SUM(H4:H39)</f>
+        <v>26.397199999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
+    <row r="4" spans="1:9">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F15" si="0">A4*D4</f>
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="0">B4*E4</f>
         <v>0</v>
       </c>
-      <c r="G4">
-        <f>A4*E4</f>
+      <c r="H4">
+        <f>B4*F4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
+    <row r="5" spans="1:9">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
       <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3.28</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.98</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>6.56</v>
       </c>
-      <c r="G5">
-        <f>A5*E5</f>
+      <c r="H5">
+        <f>B5*F5</f>
         <v>5.96</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
+      <c r="I5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
         <v>10.66</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7.79</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>10.66</v>
       </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G31" si="1">A6*E6</f>
+      <c r="H6">
+        <f t="shared" ref="H6:H33" si="1">B6*F6</f>
         <v>7.79</v>
       </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="F7">
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.189</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>0.378</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
       <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>0.17119999999999999</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="1"/>
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10">
+        <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.56599999999999995</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.26500000000000001</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>3.9619999999999997</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>1.855</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>134</v>
+        <v>4.5279999999999996</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>2.12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11">
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11">
+        <v>125</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
         <v>0.186</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0.29120000000000001</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>137</v>
-      </c>
       <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>9.8400000000000001E-2</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="0"/>
         <v>0.51300000000000001</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="1"/>
         <v>0.29520000000000002</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
       <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.52500000000000002</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.27</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>0.54</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
+      <c r="I13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14">
+        <v>3</v>
       </c>
       <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.14199999999999999</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0.42599999999999993</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
       <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
         <v>0.22900000000000001</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.11700000000000001</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>0.22900000000000001</v>
       </c>
-      <c r="G15">
-        <f>A15*E15</f>
+      <c r="H15">
+        <f>B15*F15</f>
         <v>0.11700000000000001</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="F16">
-        <f t="shared" ref="F16:F17" si="2">A16*D16</f>
+      <c r="I15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="G16">
+        <f t="shared" ref="G16:G18" si="2">B16*E16</f>
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
+    <row r="17" spans="2:9">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
-        <v>133</v>
-      </c>
       <c r="C17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17">
+        <v>145</v>
+      </c>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17">
+        <v>1.52E-2</v>
+      </c>
+      <c r="F17">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>1.52E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="E17">
+      <c r="F18">
         <v>1.34E-2</v>
       </c>
-      <c r="F17">
+      <c r="G18">
         <f t="shared" si="2"/>
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="G17">
-        <f>A17*E17</f>
+      <c r="H18">
+        <f>B18*F18</f>
         <v>1.34E-2</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
+      <c r="I18" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="F19">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G33" si="3">B19*E19</f>
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>1.52E-2</v>
-      </c>
-      <c r="E18">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ref="F18:F31" si="3">A18*D18</f>
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
         <v>0.8</v>
       </c>
-      <c r="E19">
+      <c r="F21">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F19">
+      <c r="G21">
         <f t="shared" si="3"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="G19">
+      <c r="H21">
         <f t="shared" si="1"/>
         <v>1.8359999999999999</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
+      <c r="I21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20">
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E20">
+      <c r="F22">
         <v>0.191</v>
       </c>
-      <c r="F20">
+      <c r="G22">
         <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
-      <c r="G20">
+      <c r="H22">
         <f t="shared" si="1"/>
         <v>0.76400000000000001</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
+      <c r="I22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.47E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>0.1421</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0.10289999999999999</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>4.02E-2</v>
-      </c>
-      <c r="E21">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>4.02E-2</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22">
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="E22">
-        <v>1.47E-2</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>0.10149999999999999</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23">
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25">
         <v>0.50900000000000001</v>
       </c>
-      <c r="E23">
+      <c r="F25">
         <v>0.25700000000000001</v>
       </c>
-      <c r="F23">
+      <c r="G25">
         <f t="shared" si="3"/>
         <v>0.50900000000000001</v>
       </c>
-      <c r="G23">
+      <c r="H25">
         <f t="shared" si="1"/>
         <v>0.25700000000000001</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="E24">
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <f>SUM(A18:A24)</f>
+      <c r="I25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27">
+        <f>SUM(B19:B25)</f>
         <v>18</v>
       </c>
-      <c r="F25">
+      <c r="G27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="H27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
+    <row r="28" spans="2:9">
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26">
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28">
         <v>0.33700000000000002</v>
       </c>
-      <c r="E26">
+      <c r="F28">
         <v>0.16200000000000001</v>
       </c>
-      <c r="F26">
+      <c r="G28">
         <f t="shared" si="3"/>
         <v>0.33700000000000002</v>
       </c>
-      <c r="G26">
+      <c r="H28">
         <f t="shared" si="1"/>
         <v>0.16200000000000001</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
+      <c r="I28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27">
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
         <v>0.33700000000000002</v>
       </c>
-      <c r="E27">
+      <c r="F29">
         <v>0.16200000000000001</v>
       </c>
-      <c r="F27">
+      <c r="G29">
         <f t="shared" si="3"/>
         <v>0.33700000000000002</v>
       </c>
-      <c r="G27">
+      <c r="H29">
         <f t="shared" si="1"/>
         <v>0.16200000000000001</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
+      <c r="I29" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28">
+      <c r="C30">
+        <v>1711725</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E28">
+      <c r="F30">
         <v>1.07</v>
       </c>
-      <c r="F28">
+      <c r="G30">
         <f t="shared" si="3"/>
         <v>2.3199999999999998</v>
       </c>
-      <c r="G28">
+      <c r="H30">
         <f t="shared" si="1"/>
         <v>2.14</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
+      <c r="I30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29">
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31">
         <v>0.61699999999999999</v>
       </c>
-      <c r="E29">
+      <c r="F31">
         <v>0.34799999999999998</v>
       </c>
-      <c r="F29">
+      <c r="G31">
         <f t="shared" si="3"/>
         <v>0.61699999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H31">
         <f t="shared" si="1"/>
         <v>0.34799999999999998</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I31" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30">
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32">
         <v>2.82</v>
       </c>
-      <c r="E30">
+      <c r="F32">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F30">
+      <c r="G32">
         <f t="shared" si="3"/>
         <v>2.82</v>
       </c>
-      <c r="G30">
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>2.2799999999999998</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
+      <c r="I32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33">
         <v>1</v>
       </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31">
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33">
         <v>0.60499999999999998</v>
       </c>
-      <c r="E31">
+      <c r="F33">
         <v>0.35499999999999998</v>
       </c>
-      <c r="F31">
+      <c r="G33">
         <f t="shared" si="3"/>
         <v>0.60499999999999998</v>
       </c>
-      <c r="G31">
+      <c r="H33">
         <f t="shared" si="1"/>
         <v>0.35499999999999998</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
+      <c r="I33" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48">
         <v>1</v>
       </c>
-      <c r="C46" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46">
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48">
         <v>19.309999999999999</v>
       </c>
-      <c r="E46">
+      <c r="F48">
         <v>19.309999999999999</v>
       </c>
-      <c r="F46">
-        <f>A46*D46</f>
+      <c r="G48">
+        <f>B48*E48</f>
         <v>19.309999999999999</v>
       </c>
-      <c r="G46">
-        <f>A46*E46</f>
+      <c r="H48">
+        <f>B48*F48</f>
         <v>19.309999999999999</v>
       </c>
-      <c r="H46" t="s">
-        <v>30</v>
+      <c r="I48" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H26" r:id="rId1"/>
-    <hyperlink ref="H30" r:id="rId2"/>
-    <hyperlink ref="H14" r:id="rId3"/>
-    <hyperlink ref="H22" r:id="rId4"/>
-    <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="H12" r:id="rId6"/>
-    <hyperlink ref="H27" r:id="rId7"/>
+    <hyperlink ref="I28" r:id="rId1"/>
+    <hyperlink ref="I32" r:id="rId2"/>
+    <hyperlink ref="I14" r:id="rId3"/>
+    <hyperlink ref="I23" r:id="rId4"/>
+    <hyperlink ref="I5" r:id="rId5"/>
+    <hyperlink ref="I12" r:id="rId6"/>
+    <hyperlink ref="I29" r:id="rId7"/>
+    <hyperlink ref="I19" r:id="rId8"/>
+    <hyperlink ref="I30" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="I22" r:id="rId11"/>
+    <hyperlink ref="I21" r:id="rId12"/>
+    <hyperlink ref="I10" r:id="rId13"/>
+    <hyperlink ref="I13" r:id="rId14"/>
+    <hyperlink ref="I11" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1615,293 +1658,293 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I8" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1913,238 +1956,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
         <v>116</v>
       </c>
-      <c r="B13" t="s">
-        <v>125</v>
-      </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Platinenentwurf/Platinenkosten.xlsx
+++ b/Platinenentwurf/Platinenkosten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="4695" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="4695"/>
   </bookViews>
   <sheets>
     <sheet name="Kostenüberschlag" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="166">
   <si>
     <t>Anzahl</t>
   </si>
@@ -45,9 +45,6 @@
     <t>4,7uF Kondensator</t>
   </si>
   <si>
-    <t>22pF Kondensator</t>
-  </si>
-  <si>
     <t>1nF Kondensator</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Voltage Regulator 3,3V</t>
   </si>
   <si>
-    <t>V2</t>
-  </si>
-  <si>
     <t>LDL1117S33R</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>Gesamtpreis 100+</t>
   </si>
   <si>
-    <t>https://tinyurl.com/yykxs5ha</t>
-  </si>
-  <si>
     <t>https://tinyurl.com/yy8uoj4r</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>https://tinyurl.com/yxat2nuj</t>
   </si>
   <si>
-    <t>IC</t>
-  </si>
-  <si>
     <t>CD74HCT125M</t>
   </si>
   <si>
@@ -126,9 +114,6 @@
     <t>C0805C220K5RACAUTO</t>
   </si>
   <si>
-    <t>Can Bus</t>
-  </si>
-  <si>
     <t>SN65HVD230QD</t>
   </si>
   <si>
@@ -159,9 +144,6 @@
     <t>https://tinyurl.com/y4kezger</t>
   </si>
   <si>
-    <t>https://tinyurl.com/yxs84c9k</t>
-  </si>
-  <si>
     <t>C1206F104K1RACAUTO</t>
   </si>
   <si>
@@ -432,47 +414,114 @@
     <t>CRCW1206100RFKEA</t>
   </si>
   <si>
-    <t>https://de.farnell.com/vishay/crcw1206100rfkea/dickschichtwiderstand-100r-1-0/dp/1469977</t>
-  </si>
-  <si>
     <t>0,5kO Widerstand</t>
   </si>
   <si>
     <t>CRCW1206499RFKEA</t>
   </si>
   <si>
-    <t>https://de.farnell.com/vishay/crcw1206499rfkea/dickschichtwiderstand-499r-1-0/dp/1470020</t>
-  </si>
-  <si>
-    <t>1kOhm</t>
-  </si>
-  <si>
-    <t>0 Ohm Widerstand</t>
-  </si>
-  <si>
-    <t>https://de.farnell.com/multicomp/mcmr08x000-ptl/widerstand-0r0-0-125w-0805-keramik/dp/2073603</t>
-  </si>
-  <si>
     <t>MCMR08X000 PTL</t>
   </si>
   <si>
     <t>STM32F405RGT7</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/yykjslk4</t>
+  </si>
+  <si>
+    <t>Steckverbinder</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/yy6sv4fs</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/yxq468lg</t>
+  </si>
+  <si>
+    <t>282836-2</t>
+  </si>
+  <si>
+    <t>M20-9990246</t>
+  </si>
+  <si>
+    <t>Stecker</t>
+  </si>
+  <si>
+    <t>https://de.rs-online.com/web/p/automotive-steckverbinder/7181496/</t>
+  </si>
+  <si>
+    <t>AMPSEAL Automotive Steckverbinder</t>
+  </si>
+  <si>
+    <t>776267-1</t>
+  </si>
+  <si>
+    <t>Can Transceiver</t>
+  </si>
+  <si>
+    <t>10kO Widerstand (0805)</t>
+  </si>
+  <si>
+    <t>0 Ohm Widerstand (0805)</t>
+  </si>
+  <si>
+    <t>22pF Kondensator (0805)</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/y5nwvp7m</t>
+  </si>
+  <si>
+    <t>MCMR08X103 JTL</t>
+  </si>
+  <si>
+    <t>1kO (0805)</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/y3d95sqt</t>
+  </si>
+  <si>
+    <t>MCMR08X102 JTL</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/y5m4gt32</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/y5w8o7kh</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/yxc4t7o5</t>
+  </si>
+  <si>
+    <t>MCB</t>
+  </si>
+  <si>
+    <t>Stückpreis 1000+</t>
+  </si>
+  <si>
+    <t>Gesamtpreis 1000+</t>
+  </si>
+  <si>
+    <t>Widerstände</t>
+  </si>
+  <si>
+    <t>Kondensatoren</t>
+  </si>
+  <si>
+    <t>Leitungstreiber</t>
+  </si>
+  <si>
+    <t>ICs</t>
+  </si>
+  <si>
+    <t>passive Bauelemente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -506,15 +555,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -523,6 +571,340 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Kostenüberschlag!$C$44:$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Stecker</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Platine</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>passive Bauelemente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kostenüberschlag!$H$44:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0361999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.394300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Kostenüberschlag!$C$44:$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Stecker</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Platine</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>passive Bauelemente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kostenüberschlag!$I$44:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.9521999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.701999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4657999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Kostenüberschlag!$C$44:$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Stecker</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Platine</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>passive Bauelemente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kostenüberschlag!$J$44:$J$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.7067000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.588000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -810,33 +1192,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="6" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="G1">
-        <f>SUM(G4:G39)</f>
-        <v>37.625699999999988</v>
-      </c>
+    <row r="1" spans="2:11">
       <c r="H1">
         <f>SUM(H4:H39)</f>
-        <v>26.397199999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>80.261500000000012</v>
+      </c>
+      <c r="I1">
+        <f>SUM(I4:I39)</f>
+        <v>33.510000000000005</v>
+      </c>
+      <c r="J1">
+        <f>SUM(J4:J39)</f>
+        <v>24.681600000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -850,807 +1236,1290 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="2:11">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>38.5</v>
+      </c>
+      <c r="F4">
+        <v>2.39</v>
+      </c>
       <c r="G4">
-        <f t="shared" ref="G4:G15" si="0">B4*E4</f>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="H4">
+        <f t="shared" ref="H4:H27" si="0">B4*E4</f>
+        <v>38.5</v>
+      </c>
+      <c r="I4">
         <f>B4*F4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5">
+        <v>2.39</v>
+      </c>
+      <c r="J4">
+        <f>B4*G4</f>
+        <v>0.82</v>
+      </c>
+      <c r="K4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>10.66</v>
+      </c>
+      <c r="F6">
+        <v>7.79</v>
+      </c>
+      <c r="G6">
+        <v>6.58</v>
+      </c>
+      <c r="H6">
+        <f>B6*E6</f>
+        <v>10.66</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I11" si="1">B6*F6</f>
+        <v>7.79</v>
+      </c>
+      <c r="J6">
+        <f>B6*G6</f>
+        <v>6.58</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>3.28</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>2.98</v>
       </c>
-      <c r="G5">
+      <c r="G7">
+        <v>2.52</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>6.56</v>
       </c>
-      <c r="H5">
-        <f>B5*F5</f>
+      <c r="I7">
+        <f t="shared" si="1"/>
         <v>5.96</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6">
+      <c r="J7">
+        <f t="shared" ref="J7:J41" si="2">B7*G7</f>
+        <v>5.04</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.252</v>
+      </c>
+      <c r="H8">
+        <f>B8*E8</f>
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.252</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>146</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>10.66</v>
-      </c>
-      <c r="F6">
-        <v>7.79</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>10.66</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ref="H6:H33" si="1">B6*F6</f>
-        <v>7.79</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="G7">
+      <c r="E9">
+        <v>2.82</v>
+      </c>
+      <c r="F9">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G9">
+        <v>1.51</v>
+      </c>
+      <c r="H9">
+        <f>B9*E9</f>
+        <v>2.82</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>1.51</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H10">
+        <f>B10*E10</f>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H11">
+        <f>B11*E11</f>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1711725</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F13">
+        <v>1.07</v>
+      </c>
+      <c r="G13">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="H13">
+        <f>B13*E13</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I13">
+        <f>B13*F13</f>
+        <v>1.07</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>0.371</v>
+      </c>
+      <c r="F14">
+        <v>0.309</v>
+      </c>
+      <c r="G14">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H14">
+        <f>B14*E14</f>
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="I14">
+        <f>B14*F14</f>
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="F15">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="G15">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="H15">
+        <f>B15*E15</f>
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="I15">
+        <f>B15*F15</f>
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16">
+        <v>7.09</v>
+      </c>
+      <c r="F16">
+        <v>6.22</v>
+      </c>
+      <c r="G16">
+        <v>5.23</v>
+      </c>
+      <c r="H16">
+        <f>B16*E16</f>
+        <v>7.09</v>
+      </c>
+      <c r="I16">
+        <f>B16*F16</f>
+        <v>6.22</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>5.23</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F18">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G18">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="H18">
+        <f>B18*E18</f>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I18">
+        <f>B18*F18</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="J18">
+        <f>B18*G18</f>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
+      <c r="I19">
+        <f t="shared" ref="I19:I39" si="3">B19*F19</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8">
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20">
         <v>0.189</v>
       </c>
-      <c r="F8">
+      <c r="F20">
         <v>0.1</v>
       </c>
-      <c r="G8">
+      <c r="G20">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>0.378</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
+      <c r="I20">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9">
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="F9">
+      <c r="F21">
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="G9">
+      <c r="G21">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>0.17119999999999999</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
+      <c r="I21">
+        <f t="shared" si="3"/>
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10">
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="F10">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="G10">
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.128</v>
+      </c>
+      <c r="G22">
+        <v>5.79E-2</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="0"/>
-        <v>4.5279999999999996</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>2.12</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>1.024</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0.4632</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23">
         <v>0.186</v>
       </c>
-      <c r="F11">
+      <c r="F23">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="G11">
+      <c r="G23">
+        <v>2.46E-2</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
+      <c r="I23">
+        <f t="shared" si="3"/>
         <v>0.36399999999999999</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12">
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0.123</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F12">
+      <c r="F24">
         <v>9.8400000000000001E-2</v>
       </c>
-      <c r="G12">
+      <c r="G24">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>0.51300000000000001</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
+      <c r="I24">
+        <f t="shared" si="3"/>
         <v>0.29520000000000002</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13">
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0.20729999999999998</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
         <v>0.52500000000000002</v>
       </c>
-      <c r="F13">
+      <c r="F25">
         <v>0.27</v>
       </c>
-      <c r="G13">
+      <c r="G25">
+        <v>0.129</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
+      <c r="I25">
+        <f t="shared" si="3"/>
         <v>0.54</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14">
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="E14">
+      <c r="E26">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F14">
+      <c r="F26">
         <v>0.14199999999999999</v>
       </c>
-      <c r="G14">
+      <c r="G26">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="0"/>
         <v>0.70799999999999996</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
+      <c r="I26">
+        <f t="shared" si="3"/>
         <v>0.42599999999999993</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15">
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0.20910000000000001</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15">
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F15">
+      <c r="F27">
         <v>0.11700000000000001</v>
       </c>
-      <c r="G15">
+      <c r="G27">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="0"/>
         <v>0.22900000000000001</v>
       </c>
-      <c r="H15">
-        <f>B15*F15</f>
+      <c r="I27">
+        <f>B27*F27</f>
         <v>0.11700000000000001</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="G16">
-        <f t="shared" ref="G16:G18" si="2">B16*E16</f>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="H28">
+        <f t="shared" ref="H28:H30" si="4">B28*E28</f>
         <v>0</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17">
-        <v>1.52E-2</v>
-      </c>
-      <c r="F17">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>1.52E-2</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="I17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="F18">
-        <v>1.34E-2</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="H18">
-        <f>B18*F18</f>
-        <v>1.34E-2</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="F19">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ref="G19:G33" si="3">B19*E19</f>
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="F20">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>0.8</v>
-      </c>
-      <c r="F21">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>1.8359999999999999</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="F22">
-        <v>0.191</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>1.7</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23">
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="F23">
-        <v>1.47E-2</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
-        <v>0.1421</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>0.10289999999999999</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="F25">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="C26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27">
-        <f>SUM(B19:B25)</f>
-        <v>18</v>
-      </c>
-      <c r="G27">
+      <c r="I28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
+      <c r="J28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28">
+    <row r="29" spans="1:11">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29">
+        <v>1.52E-2</v>
+      </c>
+      <c r="F29">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="G29">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>3.04E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="F28">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="F29">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>1711725</v>
+      <c r="C30" t="s">
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="E30">
-        <v>1.1599999999999999</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="F30">
-        <v>1.07</v>
+        <v>1.34E-2</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
-        <v>2.3199999999999998</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
-        <v>2.14</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
+        <f t="shared" si="4"/>
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="I30">
+        <f>B30*F30</f>
+        <v>1.34E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="E31">
-        <v>0.61699999999999999</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="F31">
-        <v>0.34799999999999998</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="G31">
+        <v>1.32E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H39" si="5">B31*E31</f>
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="3"/>
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>1.32E-2</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="E32">
-        <v>2.82</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="F32">
-        <v>2.2799999999999998</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="G32">
+        <v>1.32E-2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="3"/>
-        <v>2.82</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>2.64E-2</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="E33">
-        <v>0.60499999999999998</v>
+        <v>1.52E-2</v>
       </c>
       <c r="F33">
-        <v>0.35499999999999998</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="G33">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>1.52E-2</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="3"/>
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
       <c r="D34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>0.8</v>
+      </c>
+      <c r="F34">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G34">
+        <v>0.313</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>1.8359999999999999</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>0.93900000000000006</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.191</v>
+      </c>
+      <c r="G35">
+        <v>0.107</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>1.7</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="F36">
+        <v>1.47E-2</v>
+      </c>
+      <c r="G36">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>0.10149999999999999</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>5.2500000000000005E-2</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37">
+        <v>1.49E-2</v>
+      </c>
+      <c r="F37">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="G37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>2.98E-2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>1.78E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38">
         <v>1</v>
       </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48">
-        <v>19.309999999999999</v>
-      </c>
-      <c r="F48">
-        <v>19.309999999999999</v>
-      </c>
-      <c r="G48">
-        <f>B48*E48</f>
-        <v>19.309999999999999</v>
-      </c>
-      <c r="H48">
-        <f>B48*F48</f>
-        <v>19.309999999999999</v>
-      </c>
-      <c r="I48" t="s">
-        <v>27</v>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F38">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="G38">
+        <v>0.182</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>0.182</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+      <c r="H42">
+        <f>SUM(H29:H38)</f>
+        <v>4.8821000000000003</v>
+      </c>
+      <c r="I42">
+        <f>SUM(I29:I38)</f>
+        <v>3.0460000000000003</v>
+      </c>
+      <c r="J42">
+        <f>SUM(J29:J38)</f>
+        <v>1.6754</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="C43" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43">
+        <f>SUM(H20:H27)</f>
+        <v>5.9071999999999996</v>
+      </c>
+      <c r="I43">
+        <f>SUM(I20:I27)</f>
+        <v>3.0648</v>
+      </c>
+      <c r="J43">
+        <f>SUM(J20:J27)</f>
+        <v>1.5075000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44">
+        <f>SUM(H13:H16)</f>
+        <v>9.0361999999999991</v>
+      </c>
+      <c r="I44">
+        <f>SUM(I13:I16)</f>
+        <v>7.9521999999999995</v>
+      </c>
+      <c r="J44">
+        <f>SUM(J13:J16)</f>
+        <v>6.7067000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="H45">
+        <f>SUM(H6:H11)</f>
+        <v>21.331</v>
+      </c>
+      <c r="I45">
+        <f>SUM(I6:I11)</f>
+        <v>16.701999999999998</v>
+      </c>
+      <c r="J45">
+        <f>SUM(J6:J11)</f>
+        <v>13.588000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <f>H4</f>
+        <v>38.5</v>
+      </c>
+      <c r="I46">
+        <f>I4</f>
+        <v>2.39</v>
+      </c>
+      <c r="J46">
+        <f>J4</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="C47" t="s">
+        <v>165</v>
+      </c>
+      <c r="H47">
+        <f>H42+H43+H18</f>
+        <v>11.394300000000001</v>
+      </c>
+      <c r="I47">
+        <f>I42+I43+I18</f>
+        <v>6.4657999999999998</v>
+      </c>
+      <c r="J47">
+        <f>J42+J43+J18</f>
+        <v>3.5669</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10">
+      <c r="H49">
+        <f>SUM(H44:H47)</f>
+        <v>80.261499999999998</v>
+      </c>
+      <c r="I49">
+        <f>SUM(I44:I47)</f>
+        <v>33.51</v>
+      </c>
+      <c r="J49">
+        <f>SUM(J44:J47)</f>
+        <v>24.681600000000003</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I28" r:id="rId1"/>
-    <hyperlink ref="I32" r:id="rId2"/>
-    <hyperlink ref="I14" r:id="rId3"/>
-    <hyperlink ref="I23" r:id="rId4"/>
-    <hyperlink ref="I5" r:id="rId5"/>
-    <hyperlink ref="I12" r:id="rId6"/>
-    <hyperlink ref="I29" r:id="rId7"/>
-    <hyperlink ref="I19" r:id="rId8"/>
-    <hyperlink ref="I30" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="I22" r:id="rId11"/>
-    <hyperlink ref="I21" r:id="rId12"/>
-    <hyperlink ref="I10" r:id="rId13"/>
-    <hyperlink ref="I13" r:id="rId14"/>
-    <hyperlink ref="I11" r:id="rId15"/>
+    <hyperlink ref="K10" r:id="rId1"/>
+    <hyperlink ref="K9" r:id="rId2"/>
+    <hyperlink ref="K26" r:id="rId3"/>
+    <hyperlink ref="K36" r:id="rId4"/>
+    <hyperlink ref="K7" r:id="rId5"/>
+    <hyperlink ref="K24" r:id="rId6"/>
+    <hyperlink ref="K11" r:id="rId7"/>
+    <hyperlink ref="K31" r:id="rId8"/>
+    <hyperlink ref="K13" r:id="rId9"/>
+    <hyperlink ref="K6" r:id="rId10"/>
+    <hyperlink ref="K35" r:id="rId11"/>
+    <hyperlink ref="K34" r:id="rId12"/>
+    <hyperlink ref="K22" r:id="rId13"/>
+    <hyperlink ref="K25" r:id="rId14"/>
+    <hyperlink ref="K23" r:id="rId15"/>
+    <hyperlink ref="K15" r:id="rId16"/>
+    <hyperlink ref="K14" r:id="rId17"/>
+    <hyperlink ref="K16" r:id="rId18"/>
+    <hyperlink ref="K29" r:id="rId19"/>
+    <hyperlink ref="K32" r:id="rId20"/>
+    <hyperlink ref="K18" r:id="rId21"/>
+    <hyperlink ref="K8" r:id="rId22"/>
+    <hyperlink ref="K20" r:id="rId23"/>
+    <hyperlink ref="K21" r:id="rId24"/>
+    <hyperlink ref="K27" r:id="rId25"/>
+    <hyperlink ref="K30" r:id="rId26"/>
+    <hyperlink ref="K33" r:id="rId27"/>
+    <hyperlink ref="K37" r:id="rId28"/>
+    <hyperlink ref="K38" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -1666,285 +2535,285 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1956,238 +2825,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="B16" t="s">
-        <v>116</v>
-      </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Platinenentwurf/Platinenkosten.xlsx
+++ b/Platinenentwurf/Platinenkosten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="166">
   <si>
     <t>Anzahl</t>
   </si>
@@ -650,7 +650,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
   </c:printSettings>
 </c:chartSpace>
@@ -733,7 +733,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -800,13 +800,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1194,18 +1193,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K41" sqref="B3:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2344,30 +2346,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
-      <c r="H39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="J40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="41" spans="2:11">
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>80.261499999999998</v>
+      </c>
+      <c r="I41">
+        <v>33.51</v>
+      </c>
       <c r="J41">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24.6816</v>
       </c>
     </row>
     <row r="42" spans="2:11">
